--- a/Daily Sales & Allocation/Daily Sales Decem'2020/All Details 06-12-2020.xlsx
+++ b/Daily Sales & Allocation/Daily Sales Decem'2020/All Details 06-12-2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Sheet" sheetId="17" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>Banglalink  Balance(+)</t>
-  </si>
-  <si>
-    <t>RSO Due</t>
   </si>
   <si>
     <t>05.12.2020</t>
@@ -2835,6 +2832,12 @@
     <xf numFmtId="0" fontId="49" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="51" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2980,12 +2983,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="53" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3359,7 +3356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX65538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="AO38" sqref="AO38"/>
     </sheetView>
   </sheetViews>
@@ -3411,162 +3408,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="30.75">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="337" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
-      <c r="N1" s="335"/>
-      <c r="O1" s="335"/>
-      <c r="P1" s="335"/>
-      <c r="Q1" s="335"/>
-      <c r="R1" s="335"/>
-      <c r="S1" s="335"/>
-      <c r="T1" s="335"/>
-      <c r="U1" s="335"/>
-      <c r="V1" s="335"/>
-      <c r="W1" s="335"/>
-      <c r="X1" s="335"/>
-      <c r="Y1" s="335"/>
-      <c r="Z1" s="335"/>
-      <c r="AA1" s="335"/>
-      <c r="AB1" s="335"/>
-      <c r="AC1" s="335"/>
-      <c r="AD1" s="335"/>
-      <c r="AE1" s="335"/>
-      <c r="AF1" s="335"/>
-      <c r="AG1" s="335"/>
-      <c r="AH1" s="335"/>
-      <c r="AI1" s="335"/>
-      <c r="AJ1" s="335"/>
-      <c r="AK1" s="335"/>
-      <c r="AL1" s="335"/>
-      <c r="AM1" s="335"/>
-      <c r="AN1" s="335"/>
-      <c r="AO1" s="335"/>
-      <c r="AP1" s="335"/>
-      <c r="AQ1" s="335"/>
-      <c r="AR1" s="335"/>
-      <c r="AS1" s="335"/>
-      <c r="AT1" s="335"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="337"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
+      <c r="M1" s="337"/>
+      <c r="N1" s="337"/>
+      <c r="O1" s="337"/>
+      <c r="P1" s="337"/>
+      <c r="Q1" s="337"/>
+      <c r="R1" s="337"/>
+      <c r="S1" s="337"/>
+      <c r="T1" s="337"/>
+      <c r="U1" s="337"/>
+      <c r="V1" s="337"/>
+      <c r="W1" s="337"/>
+      <c r="X1" s="337"/>
+      <c r="Y1" s="337"/>
+      <c r="Z1" s="337"/>
+      <c r="AA1" s="337"/>
+      <c r="AB1" s="337"/>
+      <c r="AC1" s="337"/>
+      <c r="AD1" s="337"/>
+      <c r="AE1" s="337"/>
+      <c r="AF1" s="337"/>
+      <c r="AG1" s="337"/>
+      <c r="AH1" s="337"/>
+      <c r="AI1" s="337"/>
+      <c r="AJ1" s="337"/>
+      <c r="AK1" s="337"/>
+      <c r="AL1" s="337"/>
+      <c r="AM1" s="337"/>
+      <c r="AN1" s="337"/>
+      <c r="AO1" s="337"/>
+      <c r="AP1" s="337"/>
+      <c r="AQ1" s="337"/>
+      <c r="AR1" s="337"/>
+      <c r="AS1" s="337"/>
+      <c r="AT1" s="337"/>
     </row>
     <row r="2" spans="1:50" ht="21" thickBot="1">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="338" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="338"/>
+      <c r="C2" s="338"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338"/>
+      <c r="F2" s="338"/>
+      <c r="G2" s="338"/>
+      <c r="H2" s="338"/>
+      <c r="I2" s="338"/>
+      <c r="J2" s="338"/>
+      <c r="K2" s="338"/>
+      <c r="L2" s="338"/>
+      <c r="M2" s="338"/>
+      <c r="N2" s="338"/>
+      <c r="O2" s="338"/>
+      <c r="P2" s="338"/>
+      <c r="Q2" s="338"/>
+      <c r="R2" s="338"/>
+      <c r="S2" s="338"/>
+      <c r="T2" s="338"/>
+      <c r="U2" s="338"/>
+      <c r="V2" s="338"/>
+      <c r="W2" s="338"/>
+      <c r="X2" s="338"/>
+      <c r="Y2" s="338"/>
+      <c r="Z2" s="338"/>
+      <c r="AA2" s="338"/>
+      <c r="AB2" s="338"/>
+      <c r="AC2" s="338"/>
+      <c r="AD2" s="338"/>
+      <c r="AE2" s="338"/>
+      <c r="AF2" s="338"/>
+      <c r="AG2" s="338"/>
+      <c r="AH2" s="338"/>
+      <c r="AI2" s="338"/>
+      <c r="AJ2" s="338"/>
+      <c r="AK2" s="338"/>
+      <c r="AL2" s="338"/>
+      <c r="AM2" s="338"/>
+      <c r="AN2" s="338"/>
+      <c r="AO2" s="338"/>
+      <c r="AP2" s="338"/>
+      <c r="AQ2" s="338"/>
+      <c r="AR2" s="338"/>
+      <c r="AS2" s="338"/>
+      <c r="AT2" s="338"/>
+    </row>
+    <row r="3" spans="1:50" ht="18.75">
+      <c r="A3" s="339" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="340"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="341"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="341"/>
+      <c r="M3" s="341"/>
+      <c r="N3" s="341"/>
+      <c r="O3" s="341"/>
+      <c r="P3" s="341"/>
+      <c r="Q3" s="341"/>
+      <c r="R3" s="341"/>
+      <c r="S3" s="341"/>
+      <c r="T3" s="341"/>
+      <c r="U3" s="341"/>
+      <c r="V3" s="341"/>
+      <c r="W3" s="341"/>
+      <c r="X3" s="341"/>
+      <c r="Y3" s="341"/>
+      <c r="Z3" s="341"/>
+      <c r="AA3" s="341"/>
+      <c r="AB3" s="341"/>
+      <c r="AC3" s="341"/>
+      <c r="AD3" s="341"/>
+      <c r="AE3" s="341"/>
+      <c r="AF3" s="341"/>
+      <c r="AG3" s="341"/>
+      <c r="AH3" s="341"/>
+      <c r="AI3" s="341"/>
+      <c r="AJ3" s="341"/>
+      <c r="AK3" s="341"/>
+      <c r="AL3" s="341"/>
+      <c r="AM3" s="341"/>
+      <c r="AN3" s="341"/>
+      <c r="AO3" s="341"/>
+      <c r="AP3" s="341"/>
+      <c r="AQ3" s="341"/>
+      <c r="AR3" s="341"/>
+      <c r="AS3" s="341"/>
+      <c r="AT3" s="341"/>
+    </row>
+    <row r="4" spans="1:50" ht="15">
+      <c r="A4" s="342" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="336"/>
-      <c r="C2" s="336"/>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
-      <c r="K2" s="336"/>
-      <c r="L2" s="336"/>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="336"/>
-      <c r="P2" s="336"/>
-      <c r="Q2" s="336"/>
-      <c r="R2" s="336"/>
-      <c r="S2" s="336"/>
-      <c r="T2" s="336"/>
-      <c r="U2" s="336"/>
-      <c r="V2" s="336"/>
-      <c r="W2" s="336"/>
-      <c r="X2" s="336"/>
-      <c r="Y2" s="336"/>
-      <c r="Z2" s="336"/>
-      <c r="AA2" s="336"/>
-      <c r="AB2" s="336"/>
-      <c r="AC2" s="336"/>
-      <c r="AD2" s="336"/>
-      <c r="AE2" s="336"/>
-      <c r="AF2" s="336"/>
-      <c r="AG2" s="336"/>
-      <c r="AH2" s="336"/>
-      <c r="AI2" s="336"/>
-      <c r="AJ2" s="336"/>
-      <c r="AK2" s="336"/>
-      <c r="AL2" s="336"/>
-      <c r="AM2" s="336"/>
-      <c r="AN2" s="336"/>
-      <c r="AO2" s="336"/>
-      <c r="AP2" s="336"/>
-      <c r="AQ2" s="336"/>
-      <c r="AR2" s="336"/>
-      <c r="AS2" s="336"/>
-      <c r="AT2" s="336"/>
-    </row>
-    <row r="3" spans="1:50" ht="18.75">
-      <c r="A3" s="337" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="338"/>
-      <c r="C3" s="339"/>
-      <c r="D3" s="339"/>
-      <c r="E3" s="339"/>
-      <c r="F3" s="339"/>
-      <c r="G3" s="339"/>
-      <c r="H3" s="339"/>
-      <c r="I3" s="339"/>
-      <c r="J3" s="339"/>
-      <c r="K3" s="339"/>
-      <c r="L3" s="339"/>
-      <c r="M3" s="339"/>
-      <c r="N3" s="339"/>
-      <c r="O3" s="339"/>
-      <c r="P3" s="339"/>
-      <c r="Q3" s="339"/>
-      <c r="R3" s="339"/>
-      <c r="S3" s="339"/>
-      <c r="T3" s="339"/>
-      <c r="U3" s="339"/>
-      <c r="V3" s="339"/>
-      <c r="W3" s="339"/>
-      <c r="X3" s="339"/>
-      <c r="Y3" s="339"/>
-      <c r="Z3" s="339"/>
-      <c r="AA3" s="339"/>
-      <c r="AB3" s="339"/>
-      <c r="AC3" s="339"/>
-      <c r="AD3" s="339"/>
-      <c r="AE3" s="339"/>
-      <c r="AF3" s="339"/>
-      <c r="AG3" s="339"/>
-      <c r="AH3" s="339"/>
-      <c r="AI3" s="339"/>
-      <c r="AJ3" s="339"/>
-      <c r="AK3" s="339"/>
-      <c r="AL3" s="339"/>
-      <c r="AM3" s="339"/>
-      <c r="AN3" s="339"/>
-      <c r="AO3" s="339"/>
-      <c r="AP3" s="339"/>
-      <c r="AQ3" s="339"/>
-      <c r="AR3" s="339"/>
-      <c r="AS3" s="339"/>
-      <c r="AT3" s="339"/>
-    </row>
-    <row r="4" spans="1:50" ht="15">
-      <c r="A4" s="340" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="340"/>
-      <c r="C4" s="341"/>
-      <c r="D4" s="341"/>
+      <c r="B4" s="342"/>
+      <c r="C4" s="343"/>
+      <c r="D4" s="343"/>
       <c r="E4" s="330">
         <v>0</v>
       </c>
@@ -3591,10 +3588,10 @@
       <c r="L4" s="329">
         <v>300</v>
       </c>
-      <c r="M4" s="340">
+      <c r="M4" s="342">
         <v>3440</v>
       </c>
-      <c r="N4" s="340"/>
+      <c r="N4" s="342"/>
       <c r="O4" s="329">
         <v>1910</v>
       </c>
@@ -3617,32 +3614,32 @@
       <c r="Z4" s="330"/>
       <c r="AA4" s="330"/>
       <c r="AB4" s="330"/>
-      <c r="AC4" s="341"/>
-      <c r="AD4" s="341"/>
-      <c r="AE4" s="341"/>
-      <c r="AF4" s="341"/>
-      <c r="AG4" s="341"/>
-      <c r="AH4" s="341"/>
-      <c r="AI4" s="341"/>
-      <c r="AJ4" s="341"/>
-      <c r="AK4" s="341"/>
-      <c r="AL4" s="341"/>
-      <c r="AM4" s="341"/>
-      <c r="AN4" s="341"/>
-      <c r="AO4" s="341"/>
-      <c r="AP4" s="341"/>
-      <c r="AQ4" s="341"/>
-      <c r="AR4" s="341"/>
-      <c r="AS4" s="341"/>
-      <c r="AT4" s="341"/>
+      <c r="AC4" s="343"/>
+      <c r="AD4" s="343"/>
+      <c r="AE4" s="343"/>
+      <c r="AF4" s="343"/>
+      <c r="AG4" s="343"/>
+      <c r="AH4" s="343"/>
+      <c r="AI4" s="343"/>
+      <c r="AJ4" s="343"/>
+      <c r="AK4" s="343"/>
+      <c r="AL4" s="343"/>
+      <c r="AM4" s="343"/>
+      <c r="AN4" s="343"/>
+      <c r="AO4" s="343"/>
+      <c r="AP4" s="343"/>
+      <c r="AQ4" s="343"/>
+      <c r="AR4" s="343"/>
+      <c r="AS4" s="343"/>
+      <c r="AT4" s="343"/>
     </row>
     <row r="5" spans="1:50" ht="15">
-      <c r="A5" s="340" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="340"/>
-      <c r="C5" s="341"/>
-      <c r="D5" s="341"/>
+      <c r="A5" s="342" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="342"/>
+      <c r="C5" s="343"/>
+      <c r="D5" s="343"/>
       <c r="E5" s="330"/>
       <c r="F5" s="330"/>
       <c r="G5" s="330"/>
@@ -3675,160 +3672,160 @@
       <c r="Z5" s="330"/>
       <c r="AA5" s="330"/>
       <c r="AB5" s="330"/>
-      <c r="AC5" s="341"/>
-      <c r="AD5" s="341"/>
-      <c r="AE5" s="341"/>
-      <c r="AF5" s="341"/>
-      <c r="AG5" s="341"/>
-      <c r="AH5" s="341"/>
-      <c r="AI5" s="341"/>
-      <c r="AJ5" s="341"/>
-      <c r="AK5" s="341"/>
-      <c r="AL5" s="341"/>
-      <c r="AM5" s="341"/>
-      <c r="AN5" s="341"/>
-      <c r="AO5" s="341"/>
-      <c r="AP5" s="341"/>
-      <c r="AQ5" s="341"/>
-      <c r="AR5" s="341"/>
-      <c r="AS5" s="341"/>
-      <c r="AT5" s="341"/>
+      <c r="AC5" s="343"/>
+      <c r="AD5" s="343"/>
+      <c r="AE5" s="343"/>
+      <c r="AF5" s="343"/>
+      <c r="AG5" s="343"/>
+      <c r="AH5" s="343"/>
+      <c r="AI5" s="343"/>
+      <c r="AJ5" s="343"/>
+      <c r="AK5" s="343"/>
+      <c r="AL5" s="343"/>
+      <c r="AM5" s="343"/>
+      <c r="AN5" s="343"/>
+      <c r="AO5" s="343"/>
+      <c r="AP5" s="343"/>
+      <c r="AQ5" s="343"/>
+      <c r="AR5" s="343"/>
+      <c r="AS5" s="343"/>
+      <c r="AT5" s="343"/>
     </row>
     <row r="6" spans="1:50" s="234" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="321" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="322" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="322" t="s">
+      <c r="C6" s="312" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="312" t="s">
+      <c r="D6" s="303" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="303" t="s">
+      <c r="E6" s="303" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="303" t="s">
+      <c r="F6" s="323" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="323" t="s">
+      <c r="G6" s="303" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="303" t="s">
+      <c r="H6" s="323" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="323" t="s">
+      <c r="I6" s="323" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="323" t="s">
+      <c r="J6" s="324" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="324" t="s">
+      <c r="K6" s="325" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="325" t="s">
+      <c r="L6" s="323" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="323" t="s">
+      <c r="M6" s="326" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="326" t="s">
+      <c r="N6" s="323" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="323" t="s">
+      <c r="O6" s="326" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="326" t="s">
+      <c r="P6" s="327" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="327" t="s">
+      <c r="Q6" s="312" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="312" t="s">
+      <c r="R6" s="303" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="303" t="s">
+      <c r="S6" s="306" t="s">
         <v>84</v>
       </c>
-      <c r="S6" s="306" t="s">
+      <c r="T6" s="306" t="s">
         <v>85</v>
       </c>
-      <c r="T6" s="306" t="s">
+      <c r="U6" s="306" t="s">
         <v>86</v>
       </c>
-      <c r="U6" s="306" t="s">
+      <c r="V6" s="307" t="s">
         <v>87</v>
       </c>
-      <c r="V6" s="307" t="s">
+      <c r="W6" s="328" t="s">
         <v>88</v>
       </c>
-      <c r="W6" s="328" t="s">
+      <c r="X6" s="328" t="s">
         <v>89</v>
       </c>
-      <c r="X6" s="328" t="s">
+      <c r="Y6" s="328" t="s">
         <v>90</v>
       </c>
-      <c r="Y6" s="328" t="s">
+      <c r="Z6" s="328" t="s">
         <v>91</v>
       </c>
-      <c r="Z6" s="328" t="s">
+      <c r="AA6" s="328" t="s">
         <v>92</v>
       </c>
-      <c r="AA6" s="328" t="s">
+      <c r="AB6" s="328" t="s">
         <v>93</v>
       </c>
-      <c r="AB6" s="328" t="s">
+      <c r="AC6" s="302" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD6" s="303" t="s">
         <v>94</v>
       </c>
-      <c r="AC6" s="302" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD6" s="303" t="s">
+      <c r="AE6" s="304" t="s">
         <v>95</v>
       </c>
-      <c r="AE6" s="304" t="s">
+      <c r="AF6" s="305" t="s">
         <v>96</v>
       </c>
-      <c r="AF6" s="305" t="s">
+      <c r="AG6" s="304" t="s">
         <v>97</v>
       </c>
-      <c r="AG6" s="304" t="s">
+      <c r="AH6" s="305" t="s">
         <v>98</v>
       </c>
-      <c r="AH6" s="305" t="s">
+      <c r="AI6" s="305" t="s">
         <v>99</v>
       </c>
-      <c r="AI6" s="305" t="s">
+      <c r="AJ6" s="306" t="s">
         <v>100</v>
       </c>
-      <c r="AJ6" s="306" t="s">
+      <c r="AK6" s="306" t="s">
         <v>101</v>
       </c>
-      <c r="AK6" s="306" t="s">
+      <c r="AL6" s="306" t="s">
         <v>102</v>
       </c>
-      <c r="AL6" s="306" t="s">
+      <c r="AM6" s="306" t="s">
         <v>103</v>
       </c>
-      <c r="AM6" s="306" t="s">
+      <c r="AN6" s="306" t="s">
         <v>104</v>
       </c>
-      <c r="AN6" s="306" t="s">
+      <c r="AO6" s="306" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP6" s="307" t="s">
         <v>105</v>
       </c>
-      <c r="AO6" s="306" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP6" s="307" t="s">
+      <c r="AQ6" s="308" t="s">
         <v>106</v>
       </c>
-      <c r="AQ6" s="308" t="s">
+      <c r="AR6" s="309" t="s">
         <v>107</v>
       </c>
-      <c r="AR6" s="309" t="s">
+      <c r="AS6" s="310" t="s">
         <v>108</v>
-      </c>
-      <c r="AS6" s="310" t="s">
-        <v>109</v>
       </c>
       <c r="AT6" s="311" t="s">
         <v>8</v>
@@ -3844,7 +3841,7 @@
         <v>1908446134</v>
       </c>
       <c r="C7" s="237" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="238">
         <v>29915</v>
@@ -3943,7 +3940,7 @@
         <v>1908446136</v>
       </c>
       <c r="C8" s="250" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="251">
         <v>15645</v>
@@ -4042,7 +4039,7 @@
         <v>1908446137</v>
       </c>
       <c r="C9" s="250" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="251">
         <v>11514</v>
@@ -4137,7 +4134,7 @@
         <v>1908446139</v>
       </c>
       <c r="C10" s="250" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="251">
         <v>11308</v>
@@ -4222,7 +4219,7 @@
         <v>10.426000000000002</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AV10" s="43"/>
     </row>
@@ -4234,7 +4231,7 @@
         <v>1908446141</v>
       </c>
       <c r="C11" s="250" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="251">
         <v>21594</v>
@@ -4319,7 +4316,7 @@
         <v>5.1430000000000007</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AV11" s="43"/>
     </row>
@@ -4331,7 +4328,7 @@
         <v>1908446143</v>
       </c>
       <c r="C12" s="250" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="251">
         <v>15420</v>
@@ -4430,7 +4427,7 @@
         <v>1908446146</v>
       </c>
       <c r="C13" s="250" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="251">
         <v>11987</v>
@@ -4527,7 +4524,7 @@
         <v>1908446148</v>
       </c>
       <c r="C14" s="250" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="251">
         <v>16964</v>
@@ -4624,7 +4621,7 @@
         <v>1908446149</v>
       </c>
       <c r="C15" s="250" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="251">
         <v>22102</v>
@@ -4723,7 +4720,7 @@
         <v>1908446150</v>
       </c>
       <c r="C16" s="250" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="251">
         <v>12542</v>
@@ -4818,7 +4815,7 @@
         <v>1908446151</v>
       </c>
       <c r="C17" s="250" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" s="251">
         <v>15401</v>
@@ -4915,7 +4912,7 @@
         <v>1908446152</v>
       </c>
       <c r="C18" s="250" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="251">
         <v>6067</v>
@@ -5843,11 +5840,11 @@
       <c r="AV28" s="2"/>
     </row>
     <row r="29" spans="1:48" s="286" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A29" s="331" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="332"/>
-      <c r="C29" s="332"/>
+      <c r="A29" s="333" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="334"/>
+      <c r="C29" s="334"/>
       <c r="D29" s="281">
         <f t="shared" ref="D29:AT29" si="14">SUM(D7:D28)</f>
         <v>190459</v>
@@ -6024,10 +6021,10 @@
       <c r="AV29" s="285"/>
     </row>
     <row r="30" spans="1:48" ht="15.75" thickBot="1">
-      <c r="A30" s="333" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="334"/>
+      <c r="A30" s="335" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="336"/>
       <c r="C30" s="287"/>
       <c r="D30" s="288"/>
       <c r="E30" s="289">
@@ -6147,7 +6144,7 @@
       <c r="J32" s="262"/>
       <c r="K32" s="2"/>
       <c r="L32" s="295"/>
-      <c r="M32" s="381">
+      <c r="M32" s="332">
         <v>193764</v>
       </c>
       <c r="P32" s="2"/>
@@ -6157,10 +6154,10 @@
         <v>16287</v>
       </c>
       <c r="AS32" s="297" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AT32" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AU32" s="262"/>
     </row>
@@ -6179,7 +6176,7 @@
       </c>
       <c r="N33" s="294"/>
       <c r="O33" s="294" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P33" s="294"/>
       <c r="Q33" s="2"/>
@@ -6199,7 +6196,7 @@
       <c r="G34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="295"/>
-      <c r="M34" s="380">
+      <c r="M34" s="331">
         <f>M32+M33</f>
         <v>225538</v>
       </c>
@@ -6211,10 +6208,10 @@
         <v>12047</v>
       </c>
       <c r="AS34" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AT34" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AU34" s="262"/>
     </row>
@@ -6233,7 +6230,7 @@
         <v>39680</v>
       </c>
       <c r="O35" s="262" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -6242,10 +6239,10 @@
         <v>11346</v>
       </c>
       <c r="AS35" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AT35" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:47">
@@ -6257,7 +6254,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="J36" s="262"/>
-      <c r="M36" s="380">
+      <c r="M36" s="331">
         <f>M34-M35</f>
         <v>185858</v>
       </c>
@@ -6325,7 +6322,7 @@
       <c r="G40" s="2"/>
       <c r="Q40" s="262"/>
       <c r="AE40" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:47">
@@ -7081,7 +7078,7 @@
   <dimension ref="A1:Z320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="13" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="13" topLeftCell="K29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
       <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
@@ -7096,73 +7093,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="348" t="s">
+      <c r="A1" s="350" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="348"/>
-      <c r="C1" s="348"/>
-      <c r="D1" s="348"/>
-      <c r="E1" s="348"/>
-      <c r="F1" s="348"/>
-      <c r="G1" s="348"/>
-      <c r="H1" s="348"/>
-      <c r="I1" s="348"/>
-      <c r="J1" s="348"/>
-      <c r="K1" s="348"/>
-      <c r="L1" s="348"/>
-      <c r="M1" s="348"/>
-      <c r="N1" s="348"/>
-      <c r="O1" s="348"/>
-      <c r="P1" s="348"/>
-      <c r="Q1" s="348"/>
-      <c r="R1" s="348"/>
-      <c r="S1" s="348"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
+      <c r="I1" s="350"/>
+      <c r="J1" s="350"/>
+      <c r="K1" s="350"/>
+      <c r="L1" s="350"/>
+      <c r="M1" s="350"/>
+      <c r="N1" s="350"/>
+      <c r="O1" s="350"/>
+      <c r="P1" s="350"/>
+      <c r="Q1" s="350"/>
+      <c r="R1" s="350"/>
+      <c r="S1" s="350"/>
     </row>
     <row r="2" spans="1:26" s="154" customFormat="1" ht="18">
-      <c r="A2" s="349" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="349"/>
-      <c r="C2" s="349"/>
-      <c r="D2" s="349"/>
-      <c r="E2" s="349"/>
-      <c r="F2" s="349"/>
-      <c r="G2" s="349"/>
-      <c r="H2" s="349"/>
-      <c r="I2" s="349"/>
-      <c r="J2" s="349"/>
-      <c r="K2" s="349"/>
-      <c r="L2" s="349"/>
-      <c r="M2" s="349"/>
-      <c r="N2" s="349"/>
-      <c r="O2" s="349"/>
-      <c r="P2" s="349"/>
-      <c r="Q2" s="349"/>
-      <c r="R2" s="349"/>
-      <c r="S2" s="349"/>
+      <c r="A2" s="351" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="351"/>
+      <c r="C2" s="351"/>
+      <c r="D2" s="351"/>
+      <c r="E2" s="351"/>
+      <c r="F2" s="351"/>
+      <c r="G2" s="351"/>
+      <c r="H2" s="351"/>
+      <c r="I2" s="351"/>
+      <c r="J2" s="351"/>
+      <c r="K2" s="351"/>
+      <c r="L2" s="351"/>
+      <c r="M2" s="351"/>
+      <c r="N2" s="351"/>
+      <c r="O2" s="351"/>
+      <c r="P2" s="351"/>
+      <c r="Q2" s="351"/>
+      <c r="R2" s="351"/>
+      <c r="S2" s="351"/>
     </row>
     <row r="3" spans="1:26" s="155" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="350" t="s">
+      <c r="A3" s="352" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="351"/>
-      <c r="C3" s="351"/>
-      <c r="D3" s="351"/>
-      <c r="E3" s="351"/>
-      <c r="F3" s="351"/>
-      <c r="G3" s="351"/>
-      <c r="H3" s="351"/>
-      <c r="I3" s="351"/>
-      <c r="J3" s="351"/>
-      <c r="K3" s="351"/>
-      <c r="L3" s="351"/>
-      <c r="M3" s="351"/>
-      <c r="N3" s="351"/>
-      <c r="O3" s="351"/>
-      <c r="P3" s="351"/>
-      <c r="Q3" s="351"/>
-      <c r="R3" s="351"/>
-      <c r="S3" s="352"/>
+      <c r="B3" s="353"/>
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="353"/>
+      <c r="N3" s="353"/>
+      <c r="O3" s="353"/>
+      <c r="P3" s="353"/>
+      <c r="Q3" s="353"/>
+      <c r="R3" s="353"/>
+      <c r="S3" s="354"/>
       <c r="U3" s="116"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -7171,58 +7168,58 @@
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:26" s="157" customFormat="1">
-      <c r="A4" s="353" t="s">
+      <c r="A4" s="355" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="355" t="s">
+      <c r="B4" s="357" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="342" t="s">
+      <c r="C4" s="344" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="342" t="s">
+      <c r="D4" s="344" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="342" t="s">
+      <c r="E4" s="344" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="342" t="s">
+      <c r="F4" s="344" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="342" t="s">
+      <c r="G4" s="344" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="342" t="s">
+      <c r="H4" s="344" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="342" t="s">
+      <c r="I4" s="344" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="342" t="s">
+      <c r="J4" s="344" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="342" t="s">
+      <c r="K4" s="344" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="342" t="s">
+      <c r="L4" s="344" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="342" t="s">
+      <c r="M4" s="344" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="342" t="s">
+      <c r="N4" s="344" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="344" t="s">
+      <c r="O4" s="346" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="346" t="s">
+      <c r="P4" s="348" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="359" t="s">
+      <c r="Q4" s="361" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="357" t="s">
+      <c r="R4" s="359" t="s">
         <v>45</v>
       </c>
       <c r="S4" s="156" t="s">
@@ -7235,24 +7232,24 @@
       <c r="Y4" s="159"/>
     </row>
     <row r="5" spans="1:26" s="157" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="354"/>
-      <c r="B5" s="356"/>
-      <c r="C5" s="343"/>
-      <c r="D5" s="343"/>
-      <c r="E5" s="343"/>
-      <c r="F5" s="343"/>
-      <c r="G5" s="343"/>
-      <c r="H5" s="343"/>
-      <c r="I5" s="343"/>
-      <c r="J5" s="343"/>
-      <c r="K5" s="343"/>
-      <c r="L5" s="343"/>
-      <c r="M5" s="343"/>
-      <c r="N5" s="343"/>
-      <c r="O5" s="345"/>
-      <c r="P5" s="347"/>
-      <c r="Q5" s="360"/>
-      <c r="R5" s="358"/>
+      <c r="A5" s="356"/>
+      <c r="B5" s="358"/>
+      <c r="C5" s="345"/>
+      <c r="D5" s="345"/>
+      <c r="E5" s="345"/>
+      <c r="F5" s="345"/>
+      <c r="G5" s="345"/>
+      <c r="H5" s="345"/>
+      <c r="I5" s="345"/>
+      <c r="J5" s="345"/>
+      <c r="K5" s="345"/>
+      <c r="L5" s="345"/>
+      <c r="M5" s="345"/>
+      <c r="N5" s="345"/>
+      <c r="O5" s="347"/>
+      <c r="P5" s="349"/>
+      <c r="Q5" s="362"/>
+      <c r="R5" s="360"/>
       <c r="S5" s="161" t="s">
         <v>46</v>
       </c>
@@ -7265,7 +7262,7 @@
     </row>
     <row r="6" spans="1:26" s="22" customFormat="1">
       <c r="A6" s="165" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="166"/>
       <c r="C6" s="166"/>
@@ -10248,8 +10245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI189"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10275,14 +10272,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="364" t="s">
+      <c r="A1" s="366" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="364"/>
-      <c r="C1" s="364"/>
-      <c r="D1" s="364"/>
-      <c r="E1" s="364"/>
-      <c r="F1" s="364"/>
+      <c r="B1" s="366"/>
+      <c r="C1" s="366"/>
+      <c r="D1" s="366"/>
+      <c r="E1" s="366"/>
+      <c r="F1" s="366"/>
       <c r="L1" s="102"/>
       <c r="M1" s="211"/>
       <c r="N1" s="211"/>
@@ -10335,14 +10332,14 @@
       <c r="BI1" s="211"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="365" t="s">
+      <c r="A2" s="367" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="365"/>
-      <c r="C2" s="365"/>
-      <c r="D2" s="365"/>
-      <c r="E2" s="365"/>
-      <c r="F2" s="365"/>
+      <c r="B2" s="367"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="367"/>
       <c r="L2" s="102"/>
       <c r="M2" s="211"/>
       <c r="N2" s="211"/>
@@ -10471,7 +10468,7 @@
     </row>
     <row r="4" spans="1:61">
       <c r="A4" s="104" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="105">
         <v>231130</v>
@@ -10545,7 +10542,7 @@
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="110">
         <v>195803</v>
@@ -12477,12 +12474,12 @@
       <c r="BI33" s="211"/>
     </row>
     <row r="34" spans="1:61">
-      <c r="A34" s="366" t="s">
+      <c r="A34" s="368" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="367"/>
-      <c r="C34" s="367"/>
-      <c r="D34" s="368"/>
+      <c r="B34" s="369"/>
+      <c r="C34" s="369"/>
+      <c r="D34" s="370"/>
       <c r="E34" s="116"/>
       <c r="F34" s="118"/>
       <c r="G34" s="130"/>
@@ -12627,7 +12624,7 @@
         <v>886</v>
       </c>
       <c r="D36" s="108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36" s="220"/>
       <c r="F36" s="124"/>
@@ -12689,10 +12686,10 @@
     </row>
     <row r="37" spans="1:61">
       <c r="A37" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="107" t="s">
         <v>61</v>
-      </c>
-      <c r="B37" s="107" t="s">
-        <v>62</v>
       </c>
       <c r="C37" s="108"/>
       <c r="D37" s="107"/>
@@ -12756,16 +12753,16 @@
     </row>
     <row r="38" spans="1:61">
       <c r="A38" s="108" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="108">
         <v>23393</v>
       </c>
       <c r="D38" s="108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38" s="220"/>
       <c r="F38" s="124"/>
@@ -12827,16 +12824,16 @@
     </row>
     <row r="39" spans="1:61">
       <c r="A39" s="108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="108">
         <v>16287</v>
       </c>
       <c r="D39" s="108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39" s="220"/>
       <c r="F39" s="124"/>
@@ -13658,8 +13655,8 @@
       <c r="C52" s="108"/>
       <c r="D52" s="108"/>
       <c r="E52" s="124"/>
-      <c r="F52" s="361"/>
-      <c r="G52" s="361"/>
+      <c r="F52" s="363"/>
+      <c r="G52" s="363"/>
       <c r="H52" s="122"/>
       <c r="I52" s="122"/>
       <c r="J52" s="221"/>
@@ -14031,10 +14028,10 @@
       <c r="BI57" s="211"/>
     </row>
     <row r="58" spans="1:61">
-      <c r="A58" s="362" t="s">
+      <c r="A58" s="364" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="362"/>
+      <c r="B58" s="364"/>
       <c r="C58" s="138">
         <f>SUM(C36:C57)</f>
         <v>40566</v>
@@ -15977,8 +15974,8 @@
     </row>
     <row r="113" spans="5:14">
       <c r="E113" s="50"/>
-      <c r="F113" s="363"/>
-      <c r="G113" s="363"/>
+      <c r="F113" s="365"/>
+      <c r="G113" s="365"/>
       <c r="H113" s="50"/>
       <c r="I113" s="122"/>
       <c r="J113" s="102"/>
@@ -16802,7 +16799,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16823,21 +16820,21 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="B2" s="369" t="s">
+      <c r="B2" s="371" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
+      <c r="C2" s="371"/>
+      <c r="D2" s="371"/>
+      <c r="E2" s="371"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="370" t="s">
+      <c r="B3" s="372" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="370"/>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
+      <c r="C3" s="372"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="36" t="s">
@@ -16876,15 +16873,17 @@
     <row r="6" spans="1:8">
       <c r="A6" s="35"/>
       <c r="B6" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="39">
         <v>420000</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="39">
+        <v>400000</v>
+      </c>
       <c r="E6" s="41">
         <f t="shared" ref="E6:E37" si="0">E5+C6-D6</f>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="32"/>
@@ -16892,13 +16891,13 @@
     <row r="7" spans="1:8">
       <c r="A7" s="35"/>
       <c r="B7" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="2"/>
@@ -16911,7 +16910,7 @@
       <c r="D8" s="39"/>
       <c r="E8" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F8" s="31"/>
       <c r="G8" s="2"/>
@@ -16924,7 +16923,7 @@
       <c r="D9" s="39"/>
       <c r="E9" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="2"/>
@@ -16937,7 +16936,7 @@
       <c r="D10" s="42"/>
       <c r="E10" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="2"/>
@@ -16950,7 +16949,7 @@
       <c r="D11" s="39"/>
       <c r="E11" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="2"/>
@@ -16963,7 +16962,7 @@
       <c r="D12" s="39"/>
       <c r="E12" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="43"/>
@@ -16976,7 +16975,7 @@
       <c r="D13" s="39"/>
       <c r="E13" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="2"/>
@@ -16989,7 +16988,7 @@
       <c r="D14" s="39"/>
       <c r="E14" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="2"/>
@@ -17002,7 +17001,7 @@
       <c r="D15" s="39"/>
       <c r="E15" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="2"/>
@@ -17015,7 +17014,7 @@
       <c r="D16" s="39"/>
       <c r="E16" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="33"/>
@@ -17028,7 +17027,7 @@
       <c r="D17" s="39"/>
       <c r="E17" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="13"/>
@@ -17041,7 +17040,7 @@
       <c r="D18" s="39"/>
       <c r="E18" s="41">
         <f>E17+C18-D18</f>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="43"/>
@@ -17054,7 +17053,7 @@
       <c r="D19" s="39"/>
       <c r="E19" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="43"/>
@@ -17067,7 +17066,7 @@
       <c r="D20" s="39"/>
       <c r="E20" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="43"/>
@@ -17080,7 +17079,7 @@
       <c r="D21" s="39"/>
       <c r="E21" s="41">
         <f>E20+C21-D21</f>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="2"/>
@@ -17093,7 +17092,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="2"/>
@@ -17106,7 +17105,7 @@
       <c r="D23" s="39"/>
       <c r="E23" s="41">
         <f>E22+C23-D23</f>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="2"/>
@@ -17119,7 +17118,7 @@
       <c r="D24" s="39"/>
       <c r="E24" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="2"/>
@@ -17132,7 +17131,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="2"/>
@@ -17145,7 +17144,7 @@
       <c r="D26" s="39"/>
       <c r="E26" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="2"/>
@@ -17158,7 +17157,7 @@
       <c r="D27" s="39"/>
       <c r="E27" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="2"/>
@@ -17171,7 +17170,7 @@
       <c r="D28" s="39"/>
       <c r="E28" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="2"/>
@@ -17184,7 +17183,7 @@
       <c r="D29" s="39"/>
       <c r="E29" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="2"/>
@@ -17197,7 +17196,7 @@
       <c r="D30" s="39"/>
       <c r="E30" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="2"/>
@@ -17210,7 +17209,7 @@
       <c r="D31" s="39"/>
       <c r="E31" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="2"/>
@@ -17223,7 +17222,7 @@
       <c r="D32" s="39"/>
       <c r="E32" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="2"/>
@@ -17236,7 +17235,7 @@
       <c r="D33" s="42"/>
       <c r="E33" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="2"/>
@@ -17249,7 +17248,7 @@
       <c r="D34" s="39"/>
       <c r="E34" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="2"/>
@@ -17262,7 +17261,7 @@
       <c r="D35" s="39"/>
       <c r="E35" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F35" s="31"/>
       <c r="G35" s="2"/>
@@ -17275,7 +17274,7 @@
       <c r="D36" s="39"/>
       <c r="E36" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="2"/>
@@ -17288,7 +17287,7 @@
       <c r="D37" s="39"/>
       <c r="E37" s="41">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="2"/>
@@ -17301,7 +17300,7 @@
       <c r="D38" s="39"/>
       <c r="E38" s="41">
         <f t="shared" ref="E38:E69" si="1">E37+C38-D38</f>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="2"/>
@@ -17314,7 +17313,7 @@
       <c r="D39" s="39"/>
       <c r="E39" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="2"/>
@@ -17327,7 +17326,7 @@
       <c r="D40" s="39"/>
       <c r="E40" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F40" s="31"/>
       <c r="G40" s="2"/>
@@ -17340,7 +17339,7 @@
       <c r="D41" s="39"/>
       <c r="E41" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="2"/>
@@ -17353,7 +17352,7 @@
       <c r="D42" s="39"/>
       <c r="E42" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="2"/>
@@ -17366,7 +17365,7 @@
       <c r="D43" s="39"/>
       <c r="E43" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="2"/>
@@ -17379,7 +17378,7 @@
       <c r="D44" s="39"/>
       <c r="E44" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="2"/>
@@ -17392,7 +17391,7 @@
       <c r="D45" s="39"/>
       <c r="E45" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="2"/>
@@ -17405,7 +17404,7 @@
       <c r="D46" s="39"/>
       <c r="E46" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="2"/>
@@ -17418,7 +17417,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="2"/>
@@ -17431,7 +17430,7 @@
       <c r="D48" s="39"/>
       <c r="E48" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="2"/>
@@ -17443,7 +17442,7 @@
       <c r="D49" s="39"/>
       <c r="E49" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="2"/>
@@ -17455,7 +17454,7 @@
       <c r="D50" s="39"/>
       <c r="E50" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="2"/>
@@ -17467,7 +17466,7 @@
       <c r="D51" s="39"/>
       <c r="E51" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="2"/>
@@ -17479,7 +17478,7 @@
       <c r="D52" s="39"/>
       <c r="E52" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="2"/>
@@ -17491,7 +17490,7 @@
       <c r="D53" s="39"/>
       <c r="E53" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="2"/>
@@ -17503,7 +17502,7 @@
       <c r="D54" s="39"/>
       <c r="E54" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="2"/>
@@ -17515,7 +17514,7 @@
       <c r="D55" s="39"/>
       <c r="E55" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F55" s="31"/>
       <c r="G55" s="2"/>
@@ -17526,7 +17525,7 @@
       <c r="D56" s="39"/>
       <c r="E56" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F56" s="31"/>
       <c r="G56" s="2"/>
@@ -17537,7 +17536,7 @@
       <c r="D57" s="39"/>
       <c r="E57" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F57" s="31"/>
       <c r="G57" s="2"/>
@@ -17548,7 +17547,7 @@
       <c r="D58" s="39"/>
       <c r="E58" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="2"/>
@@ -17559,7 +17558,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F59" s="31"/>
       <c r="G59" s="2"/>
@@ -17570,7 +17569,7 @@
       <c r="D60" s="39"/>
       <c r="E60" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F60" s="31"/>
       <c r="G60" s="2"/>
@@ -17581,7 +17580,7 @@
       <c r="D61" s="39"/>
       <c r="E61" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F61" s="31"/>
       <c r="G61" s="2"/>
@@ -17592,7 +17591,7 @@
       <c r="D62" s="39"/>
       <c r="E62" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F62" s="31"/>
       <c r="G62" s="2"/>
@@ -17603,7 +17602,7 @@
       <c r="D63" s="39"/>
       <c r="E63" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F63" s="31"/>
       <c r="G63" s="2"/>
@@ -17614,7 +17613,7 @@
       <c r="D64" s="39"/>
       <c r="E64" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="2"/>
@@ -17625,7 +17624,7 @@
       <c r="D65" s="39"/>
       <c r="E65" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="2"/>
@@ -17636,7 +17635,7 @@
       <c r="D66" s="39"/>
       <c r="E66" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="2"/>
@@ -17647,7 +17646,7 @@
       <c r="D67" s="39"/>
       <c r="E67" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="2"/>
@@ -17658,7 +17657,7 @@
       <c r="D68" s="39"/>
       <c r="E68" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="2"/>
@@ -17669,7 +17668,7 @@
       <c r="D69" s="39"/>
       <c r="E69" s="41">
         <f t="shared" si="1"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="2"/>
@@ -17680,7 +17679,7 @@
       <c r="D70" s="39"/>
       <c r="E70" s="41">
         <f t="shared" ref="E70:E82" si="2">E69+C70-D70</f>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F70" s="31"/>
       <c r="G70" s="2"/>
@@ -17691,7 +17690,7 @@
       <c r="D71" s="39"/>
       <c r="E71" s="41">
         <f t="shared" si="2"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="2"/>
@@ -17702,7 +17701,7 @@
       <c r="D72" s="39"/>
       <c r="E72" s="41">
         <f t="shared" si="2"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="2"/>
@@ -17713,7 +17712,7 @@
       <c r="D73" s="39"/>
       <c r="E73" s="41">
         <f t="shared" si="2"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F73" s="31"/>
       <c r="G73" s="2"/>
@@ -17724,7 +17723,7 @@
       <c r="D74" s="39"/>
       <c r="E74" s="41">
         <f t="shared" si="2"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="2"/>
@@ -17735,7 +17734,7 @@
       <c r="D75" s="39"/>
       <c r="E75" s="41">
         <f t="shared" si="2"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="2"/>
@@ -17746,7 +17745,7 @@
       <c r="D76" s="39"/>
       <c r="E76" s="41">
         <f t="shared" si="2"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F76" s="31"/>
       <c r="G76" s="2"/>
@@ -17757,7 +17756,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="41">
         <f t="shared" si="2"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F77" s="31"/>
       <c r="G77" s="2"/>
@@ -17768,7 +17767,7 @@
       <c r="D78" s="39"/>
       <c r="E78" s="41">
         <f t="shared" si="2"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="2"/>
@@ -17779,7 +17778,7 @@
       <c r="D79" s="39"/>
       <c r="E79" s="41">
         <f t="shared" si="2"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F79" s="31"/>
       <c r="G79" s="2"/>
@@ -17790,7 +17789,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="41">
         <f t="shared" si="2"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="2"/>
@@ -17801,7 +17800,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="41">
         <f t="shared" si="2"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="2"/>
@@ -17812,7 +17811,7 @@
       <c r="D82" s="39"/>
       <c r="E82" s="41">
         <f t="shared" si="2"/>
-        <v>420000</v>
+        <v>20000</v>
       </c>
       <c r="F82" s="31"/>
       <c r="G82" s="2"/>
@@ -17825,11 +17824,11 @@
       </c>
       <c r="D83" s="41">
         <f>SUM(D5:D77)</f>
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="E83" s="66">
         <f>E71+C83-D83</f>
-        <v>840000</v>
+        <v>40000</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="2"/>
@@ -17857,7 +17856,7 @@
   <dimension ref="A1:AC222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17875,24 +17874,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="371" t="s">
+      <c r="A1" s="373" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="372"/>
-      <c r="C1" s="372"/>
-      <c r="D1" s="372"/>
-      <c r="E1" s="373"/>
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="375"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="23.25">
-      <c r="A2" s="374" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="375"/>
-      <c r="C2" s="375"/>
-      <c r="D2" s="375"/>
-      <c r="E2" s="376"/>
+      <c r="A2" s="376" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="377"/>
+      <c r="C2" s="377"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="378"/>
       <c r="F2" s="5"/>
       <c r="G2" s="11"/>
       <c r="H2" s="8"/>
@@ -17954,14 +17953,14 @@
         <v>9</v>
       </c>
       <c r="B4" s="202">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="72">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="F4" s="63"/>
       <c r="G4" s="55"/>
@@ -18000,7 +17999,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="72">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="55"/>
@@ -18033,14 +18032,14 @@
       </c>
       <c r="B6" s="71">
         <f>B4+B5</f>
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="C6" s="68"/>
       <c r="D6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="204">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="55"/>
@@ -18074,10 +18073,10 @@
       <c r="B7" s="71"/>
       <c r="C7" s="70"/>
       <c r="D7" s="68" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E7" s="73">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="55"/>
@@ -18109,7 +18108,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="71">
-        <v>1770</v>
+        <v>0</v>
       </c>
       <c r="C8" s="70"/>
       <c r="D8" s="68"/>
@@ -18185,15 +18184,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="75">
-        <f>B5-B8-B9</f>
-        <v>-1770</v>
+        <v>0</v>
       </c>
       <c r="C10" s="70"/>
       <c r="D10" s="68" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="73">
-        <v>0</v>
+        <v>2480000</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>50</v>
@@ -18304,7 +18302,7 @@
       </c>
       <c r="B13" s="74">
         <f>B6-B8-B11+B12-B9</f>
-        <v>-1770</v>
+        <v>7000000</v>
       </c>
       <c r="C13" s="70"/>
       <c r="D13" s="70" t="s">
@@ -18312,12 +18310,12 @@
       </c>
       <c r="E13" s="73">
         <f>E4+E5+E6+E7+E8+E9+E10</f>
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="205">
         <f>B13-E13</f>
-        <v>-1770</v>
+        <v>0</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="8"/>
@@ -18376,13 +18374,13 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" ht="22.5">
-      <c r="A15" s="377" t="s">
+      <c r="A15" s="379" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="378"/>
-      <c r="C15" s="378"/>
-      <c r="D15" s="378"/>
-      <c r="E15" s="379"/>
+      <c r="B15" s="380"/>
+      <c r="C15" s="380"/>
+      <c r="D15" s="380"/>
+      <c r="E15" s="381"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9"/>
       <c r="H15" s="28"/>
